--- a/biology/Botanique/Fernand_Demaret/Fernand_Demaret.xlsx
+++ b/biology/Botanique/Fernand_Demaret/Fernand_Demaret.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Fernand Demaret (1911-2008) est un botaniste bryologue belge.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Docteur en sciences naturelles de l'université de Liège (1934), Fernand Demaret entre en 1934 au Jardin botanique de l'État à Bruxelles et succède à Walter Robyns en tant que directeur en 1966.
 Il est surtout connu pour ses travaux en bryologie africaine et belge entre 1937 et 1966, et pour la publication de la Flore générale de Belgique, Bryophytes, en collaboration avec Émile Castagne  puis avec Jean-Louis De Sloover. Déchargé de ses fonctions de directeur en 1976, il reprend avec Rudolf Wilczek l'étude des Bryaceae et publie, en 1993, un dernier fascicule de la Flore générale de Belgique.
@@ -545,7 +559,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Fernand Demaret est l'auteur, seul ou en collaboration, d'une centaine de contributions bryologiques publiées principalement dans le Bulletin du Jardin botanique de l’État, Bruxelles et dans le Bulletin du Jardin Botanique National de Belgique.
 </t>
